--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/0_fold/66.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/0_fold/66.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-16.43938472411979</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>5.464967935252758</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>-3.993603880500904</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-7.746541039974738</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-9.725092063107452</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-3.968123660950496</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-16.98112100030376</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5.266774605073683</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>-4.389640737407766</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-8.378122781350514</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-9.616932752599473</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-4.020572633929169</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-17.58877162373953</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>5.044466618810583</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-4.833864345060877</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-8.953243508798659</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-9.605423415904976</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-4.495874278093412</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-18.19974808765484</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>4.82094187925024</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>-5.280519311786644</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-9.73851712952076</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-9.562203760847613</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-5.052578926522794</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-18.79568693344618</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>4.602918627673946</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-5.716181012454745</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-10.38597570076743</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-9.429449600874964</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-5.541467049580207</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-19.33770556644532</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>4.40462199771607</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-6.112424286599154</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-11.02958959758159</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-9.342167841111591</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-6.064420686236718</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-19.81477151310175</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>4.230088201772227</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-6.461183833185157</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-11.59874179628762</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-9.261986018357614</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-6.590843774618387</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-20.24149900328262</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>4.073970647759309</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-6.77314339985372</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-12.16916649618981</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-9.172596891921518</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-7.1649420293111</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-20.62547450101432</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>3.933493840227278</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-7.053849078864355</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-12.63731108215475</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-9.106969070251028</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-7.279218750781202</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-20.99669123940535</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3.79768480392241</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-7.32522745385373</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-13.03535036200696</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-9.047328273984268</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-7.394952112288584</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-21.40565485559202</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>3.6480661341426</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-7.624200722331754</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-13.47812190810692</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-8.946227689207394</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-7.376658037638571</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-21.87403972756902</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>3.476708295165061</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-7.966613960424577</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-13.86501661342625</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-8.888966792488878</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-7.199583577834034</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-22.43141065310376</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>3.272795054104553</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-8.374080543676033</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-14.33577865736763</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-8.69579358507454</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-6.700416210877185</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-23.10772037871999</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3.025368247658128</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-8.868497457963754</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-15.05624528656596</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-8.587759565136235</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-6.041270041280595</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-23.89068650233863</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>2.738921372528273</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-9.440885640728132</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-15.57263170613462</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-8.368434384631815</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-5.438840137862799</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-24.77187083271341</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>2.416541527174718</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-10.08507634365736</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-16.49209306865201</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-8.137539396612494</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-4.703455415042334</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-25.74054866034595</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>2.062152329018214</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-10.79322925694074</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-17.04219397720777</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-7.890072504516469</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-4.186037010527483</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-26.74687189450593</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1.693990620484199</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-11.52890288303871</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-17.92760121518748</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-7.541355093143663</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-3.574334269054189</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-27.75568466701728</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>1.324918118418057</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-12.26639648868608</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-18.52295516450189</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-7.285718427537526</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-3.135640637463206</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-28.73758955428545</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.9656898221377775</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-12.98421905739869</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-19.40792314050286</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-7.000587740554715</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-2.85331400332862</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-29.63638336622175</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.6368675767699791</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-13.64128318977316</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-19.94827424452011</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-6.796328906372413</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-2.747508967893513</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-30.42549918700533</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.3481708449953057</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-14.21816711491848</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-20.43913818458154</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-6.532201474887581</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-2.729466494704485</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-31.09383344277123</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.1036618511430691</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-14.70675355384256</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-20.89329431433679</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-6.419658651175838</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-2.870273928126307</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-31.61331281350322</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>-0.08638882659618592</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-15.08651947733185</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-21.33681758712203</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-6.272396050326857</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-3.106636947993652</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-31.99131116711732</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>-0.2246789057334115</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-15.36285555904269</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-21.48193706517184</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-6.186469085450764</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-3.234175714894074</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-32.24618696435157</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>-0.3179247990890003</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-15.54918277041077</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-21.6194124790967</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-6.252607595625081</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-3.569017532918119</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-32.37347940566068</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>-0.3644945304486725</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-15.64224003938152</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-21.56691387992577</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-6.232201593024518</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-3.831010796350502</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-32.39896256324026</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>-0.3738175019501412</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-15.66086952770556</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-21.72944986900908</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-6.235096737097303</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-4.024303618751929</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-32.34973731776676</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>-0.3558085264427258</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-15.62488336182588</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-21.59793845535232</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-6.311530197353613</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-4.282555965724934</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-32.22443697457321</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>-0.3099676009188877</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-15.5332824182131</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-21.52607157285059</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-6.373720708486188</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-4.432907701936474</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-32.05001990795595</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>-0.2461574025019709</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-15.40577464387576</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-21.31070640599381</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-6.481583256372115</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-4.388847651354314</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-31.84728651757478</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>-0.1719877233710609</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-15.25756619218743</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-21.05417288193329</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-6.507692568540953</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-4.478480671830082</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-31.60724651307732</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>-0.08416948051187928</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-15.082084702222</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-20.70145456994985</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-6.572810944258723</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-4.344072522935671</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-31.35158524852044</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.00936377477840373</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-14.89518327416707</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-20.68149758499805</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-6.507093658908729</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-4.160466356782152</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-31.09386955278949</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.1036486403519781</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-14.70677995210822</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-20.10156308967975</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-6.655828682816185</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-3.99168150300795</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-30.82005265794975</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.2038241032725244</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-14.50660583202861</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-19.91368123157552</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-6.719206244436973</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-3.79744848567337</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-30.54749541322893</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.3035387252582766</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-14.30735258045242</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-19.55443738854703</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-6.677092045678646</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-3.623287305943391</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-30.28344631144729</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.4001406570719128</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-14.11431921544445</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-19.21078055305294</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-6.777300064579004</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-3.421645287691923</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-30.01132773574518</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.49969479271498</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-13.91538665330153</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-18.98277641524074</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-6.725902352337503</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-2.991562385048585</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-29.74801197434754</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.5960284331491191</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-13.72288939752879</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-18.46842780897554</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-6.816117361074189</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-2.833778474101381</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-29.49917554618339</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.6870648332128539</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-13.54097727307545</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-18.24018819051494</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-6.750978276171348</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-2.538510917453784</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-29.24816711384205</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.77889585745068</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-13.35747730275442</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-17.83824536606813</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-6.865869107286326</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-2.052893613389172</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-29.00993856716656</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.8660513814298449</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-13.18332008087621</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-17.5187117116129</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-6.916378395488326</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-1.786841621125643</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-28.78560541234793</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.9481232990357197</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-13.01932109937879</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-17.00814890961811</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-7.061557652319265</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-1.560221536780373</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-28.55736233240765</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>1.031625656349395</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-12.85246376313573</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-16.69319354238463</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-7.053894011292265</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-1.234907468818351</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-28.34120181855918</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1.110707626629522</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-12.69443939915009</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-16.38767551498314</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-7.137377706513802</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-0.9700141674935666</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-28.14049493394693</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1.184135911940922</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-12.54771242656977</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-16.02984455584505</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-7.272201128258645</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-0.7746125275836241</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-27.94148056421162</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>1.256944993454111</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-12.40222276871546</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-15.61192074662517</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-7.325673900844158</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-0.4897533261114955</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-27.76048296293215</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>1.323162669709227</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-12.26990428780565</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-15.25990434811292</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-7.373016754648956</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-0.2975728470112639</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-27.59723861583188</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>1.382885346973184</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-12.15056434145978</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-15.00849252815508</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-7.44297735201979</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-0.1763141849988388</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-27.4350064368958</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>1.442237724170514</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-12.03196434168207</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-14.53615910373304</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-7.484628493399953</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-0.1376701869189262</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-27.28733434829623</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>1.496263316143443</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-11.92400851078625</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-14.20505519818821</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-7.507456642286301</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-0.2538637142562664</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-27.15230946869852</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>1.545661947398129</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-11.8252984349228</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-13.85739066319733</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-7.556923844295578</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-0.2435215699915832</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-27.01355446893925</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>1.596425237010192</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>-11.72386145091305</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-13.56279531510235</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-7.541101198534705</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-0.2706018325028215</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-26.88518048961761</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>1.643390647281991</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-11.6300135224758</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-13.22675990136317</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-7.562885190309824</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-0.551200361865908</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-26.76613952695256</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>1.686941588681928</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>-11.5429885053787</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-12.8794576442929</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-7.666272069118425</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-0.6966789750436411</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-26.64395318957714</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>1.731643260272766</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>-11.45366405889343</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-12.63765524617934</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-7.706649181433082</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-0.9359685171677017</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-26.53613313906322</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>1.771089049323401</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>-11.3748421010621</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-12.24234663615376</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-7.64024932134318</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-0.9547459314664479</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-26.4416935175084</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>1.805639630334236</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>-11.30580191946026</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-12.26451351642131</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-7.743593953414238</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-1.171235746461548</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-26.34787776695037</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>1.839961969161757</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>-11.23721781938655</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-11.81246312707962</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-7.724055251484407</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-1.402037049822917</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-26.26991094805545</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>1.868486002274515</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>-11.18022009696029</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-11.64585151138941</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-7.787926520077262</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-1.69777801448263</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-26.20365898646621</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>1.892724174011435</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>-11.13178653290853</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-11.5272371917065</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-7.750811932778531</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-1.862702772158042</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-26.13507677560084</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>1.917814863632958</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>-11.08164943774819</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-11.32900324202073</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-7.889173311700731</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-1.982230018853428</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-26.0786040779283</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>1.938475307668121</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>-11.04036501455093</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-11.15891828676664</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-7.891956626174136</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-2.094748840642178</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-26.02913266272955</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>1.956574343966704</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>-11.00419888604269</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-11.02074548784461</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-7.927971555745651</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-2.263633010782558</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-25.97409066523674</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>1.97671136868222</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>-10.96396037767016</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-11.15408640500046</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-8.021693872065789</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-2.39944152044008</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-25.93054772895126</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>1.99264148067137</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>-10.93212826971448</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-10.98634267080833</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-8.070558850973232</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-2.411150920012482</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-25.89577432777812</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>2.005363272589578</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>-10.90670713934163</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-11.21905642158851</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-8.106849212706177</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-2.443362528109591</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-25.86100470544077</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>2.018083682026897</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>-10.88128877149054</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-11.35019197190262</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-8.130656491862634</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-2.538904872372957</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-25.84689985549899</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>2.023243918297814</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>-10.87097740656326</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-11.27157313465546</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-8.195624933080497</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-2.498843960802236</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-25.85165025991175</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>2.021505990616667</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>-10.87445019455138</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-11.40044897643975</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-8.289849654230434</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-2.281897290522717</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-25.86771740250576</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>2.0156278527899</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>-10.88619609552229</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-11.6112449130228</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-8.306969523344092</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-2.328238306981435</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-25.91659486895781</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>1.997746111668401</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>-10.92192801719384</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-11.86257974892251</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-8.482367208845456</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-2.265083029728759</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-25.99588422973204</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>1.96873822877322</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>-10.97989258520906</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-12.16859590846484</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-8.47364822774729</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-2.058508298623776</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-26.09790318071868</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>1.931414762492089</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>-11.0544736433178</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-12.56039042266047</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-8.532362080890316</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-2.105769646742411</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-26.24475335240004</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>1.877689867478755</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>-11.16182861101276</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-12.95869235400511</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-8.625776244536613</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-1.902154543349537</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-26.4335689876078</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>1.808611976303906</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-11.29986247359493</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-13.4842444049653</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-8.698635299449844</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-1.723010992582955</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-26.65698598423784</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>1.726875233672185</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-11.46319169671472</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-14.02819564581864</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-8.756764739390196</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-1.725447554099859</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-26.93976186004062</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>1.623422142226221</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-11.66991528895942</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-14.49367748906708</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-8.875366242286015</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-1.5337537251939</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-27.279733852955</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>1.499043944927063</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-11.91845216091971</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-15.22512566773401</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-8.9129708089035</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-1.446577129508272</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-27.67147281176516</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>1.355726887863115</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-12.2048333260652</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-16.006790094672</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-9.112318252754605</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-1.314489673036891</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-28.14580308118911</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>1.182193934958284</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-12.55159295302187</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-16.79423738291778</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-9.135775960867081</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-1.33993121550619</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-28.70454020203541</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>0.9777808735785929</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-12.96005829474844</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-17.79203228881985</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-9.281338337621815</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-1.179796817226103</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-29.34496372066722</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>0.7434829772355083</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-13.42824056084068</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-18.7673795490659</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-9.454195006115093</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-1.214037789738785</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-30.10347948177059</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>0.4659812272228474</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-13.98275428116552</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-19.77136940741047</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-9.507987528518086</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-1.125229095102296</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-30.97979235407229</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>0.1453835968339856</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-14.62338369970484</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-20.8735818669814</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-9.677336889427911</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-1.246500999296878</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-31.96520926055588</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>-0.2151295659294109</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-15.34377373364476</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-22.39873568497272</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-9.769113784902576</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-1.252191827078885</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-33.09173570281376</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>-0.6272674214531524</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-16.16732203754823</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-23.76264412897291</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-9.81218309127633</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-1.31017934274476</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-34.34799706314584</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>-1.086868584464357</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-17.08571318555122</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-25.29179206103899</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-9.970304346224907</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-1.560939925162395</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-35.71401228996942</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>-1.586623019937226</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-18.08434000952714</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-26.81486730946079</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-10.05926396416265</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-1.577039108119871</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-37.21703190427215</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>-2.136500286384062</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-19.18312403062098</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-28.79918574945984</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-10.06858185489304</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-1.89219311182187</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-38.83602768518464</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>-2.728807243609051</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-20.36669254653172</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-30.58116744232217</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-10.06841866651469</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-2.198322568383816</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-40.54285568938258</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>-3.353247475999947</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-21.6144708988044</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-32.555319458174</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-10.12619480775775</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-2.474696841638792</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-42.35428910311867</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-4.015957426300733</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-22.93872114234634</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-34.81839037995221</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-10.14394444318938</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-2.919978458852924</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-44.2466401628288</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-4.708270964972623</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-24.32212631345856</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-36.89712297453718</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-10.15293699262232</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-3.332273800313758</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-46.16496899123108</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-5.410088427812166</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-25.72452255885284</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-39.09109843990635</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-10.13998546827955</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-3.902710591640037</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-48.1574057014137</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-6.139018137935618</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-27.18109544676228</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-41.37265232834685</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-10.10367626118819</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-4.517273644459261</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-50.12968358919213</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-6.860572775869113</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-28.62293120700485</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-43.81761846559115</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-10.13481831951274</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-5.182620465850906</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-52.13156694951221</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-7.592958527487455</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-30.08641007812643</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-46.1033272289337</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-9.982774589106652</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-5.746548724646978</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-54.04439592634868</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-8.292763878631257</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-31.48478565142742</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-48.44462753919441</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-9.883524577107632</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-6.462348260057115</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-56.05450736481208</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-9.028159859174426</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-32.95427966746272</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-50.88779587225766</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-9.687059851818271</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-7.127665286538907</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-49.54025819949089</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-6.644932461545175</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-28.19203117505071</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-49.28524861048658</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-6.551637620689446</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-28.00560615507276</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-48.86953584722404</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-6.399549786495801</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-27.70169891574538</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-48.31202532509678</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-6.195585474250344</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-27.29413028026266</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-47.63520887409013</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-5.947973283149002</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-26.79934292386175</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-46.85243092831438</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-5.661595252575052</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-26.22709230870124</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-45.99176308660127</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-5.346721331026493</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-25.597900205721</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-45.08528468853228</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-5.015087692396617</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-24.93521824882117</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-44.14908428483997</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-4.672580306644651</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-24.25080798941418</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-43.21957158947009</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-4.332519608039105</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-23.57128678599322</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-42.33233426885708</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-4.007925286111627</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-22.92267103838041</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-41.50556418627561</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-3.705452804273238</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-22.31825992676601</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-40.76291083400984</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-3.433754290577575</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-21.77534243659076</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-40.10181651626614</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>-3.191894016203785</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-21.29204876173762</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-39.48500459668097</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>-2.966234384735389</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-20.8411277791962</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-38.8785254810196</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>-2.744354992674578</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-20.39776060349572</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-38.24480422346163</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>-2.5125091075782</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-19.93447803219325</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-37.55329073949845</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>-2.259520031019007</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-19.4289463948685</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-36.80666977393521</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>-1.986369972490816</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-18.88312837694787</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-36.020388025878</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>-1.698710081585587</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-18.308316303558</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-35.2173776267591</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>-1.404930041063144</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-17.72127473275763</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-34.43646410427632</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>-1.119234106700097</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-17.15038710614588</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-33.70862346836569</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>-0.8529548010443719</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-16.61829846736095</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-33.0531781233142</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>-0.6131611940864083</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-16.13913447975256</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-32.48769401981142</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>-0.4062797601421819</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-15.72573674947765</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-32.01618663927802</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>-0.2337795565187612</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-15.38104079832184</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-31.63172977981363</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>-0.09312664358449635</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-15.09998321932586</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-31.32736828990181</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>0.01822350946193785</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-14.87747944188409</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-31.08637858261973</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>0.1063891995308373</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-14.70130367072992</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-30.88818232610275</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>0.1788989756618095</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-14.55641209537779</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-30.71696830451291</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>0.2415373452967065</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-14.43124591037267</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-30.559821425299</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>0.299029273911946</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-14.31636352414039</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-30.41226139443348</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>0.3530138697462343</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-14.20848961316528</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-30.27847388132857</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>0.4019598124942778</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-14.11068411533766</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-30.16644787339487</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>0.4429443441845782</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-14.02878738804739</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-30.08652931176833</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>0.472182419181991</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-13.97036284210772</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-30.04959377924216</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>0.4856952233177311</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-13.94336108340534</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-30.06412343685124</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>0.4803795718568569</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-13.95398300441083</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-30.13487241991148</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>0.4544961721734113</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-14.00570412059287</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-30.2647587935138</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>0.4069774549288147</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-14.10065768641061</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-30.45570583254722</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>0.3371197931520418</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-14.24024971393211</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-30.70499076966706</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>0.2459193068207836</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-14.42248972131467</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-31.0072071204088</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>0.135353949429556</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-14.64342529257957</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-31.35520847990099</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>0.008038221506653832</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-14.89783204116105</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-31.7378245391476</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>-0.1319412376801027</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-15.17754390128145</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-32.14449744738464</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>-0.2807218557049133</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-15.47484254537794</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-32.56801167591697</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>-0.4356638432016871</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-15.784453053843</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-33.00212212691613</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>-0.5944824413489668</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-16.10180994154337</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-33.44571364035319</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>-0.7567696706749403</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-16.42609796960319</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-33.90080034690344</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>-0.9232623975913747</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-16.7587895703057</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-34.36685896309281</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>-1.093769179695542</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-17.09950219673377</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-34.8458822087073</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>-1.269019050260393</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-17.44969262871818</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-35.33784899265571</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>-1.449004293144727</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-17.80934544759521</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-35.83591581191199</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>-1.631221223964734</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-18.17345770350194</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-36.33465394093049</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>-1.813683752362762</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-18.53806072109463</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-36.82517405657187</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>-1.993139734014205</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-18.89665595163119</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-37.29288854007115</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>-2.164252312464148</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-19.23857910154403</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-37.72811157110884</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>-2.323477946197966</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-19.55674934201563</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-38.12013514831997</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>-2.466899130438178</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-19.84333857773327</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-38.45755508350155</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>-2.590343661591814</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-20.09000976528663</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-38.73967081940763</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>-2.693555241936783</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-20.29625076158695</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-38.96737904881675</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>-2.776861925058831</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-20.46271709480403</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-39.14192012833816</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>-2.840717493393806</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-20.59031552890136</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-39.27462924270215</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>-2.889268905727103</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-20.68733266223019</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-39.37487701574823</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>-2.925944389456926</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-20.76061889890008</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-39.44934309581636</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>-2.953187682998289</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-20.81505740263865</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-39.51121753241345</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>-2.975824344379936</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-20.8602907725828</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-39.56608378284196</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>-2.995897072319562</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-20.90040080088483</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-39.61571900561832</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>-3.014056037352366</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-20.93668668108965</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-39.67105360060283</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>-3.034300108381435</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-20.97713909315674</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-39.73560976313196</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>-3.057917874807114</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-21.02433294157704</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-39.80836892705182</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>-3.084536695868721</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-21.07752360252552</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-39.89722500283665</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>-3.117044545796163</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-21.14248192730079</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-40.00237594216586</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>-3.155513844887436</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-21.21935262867985</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-40.1216553079879</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>-3.199152005692251</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-21.30655193064788</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-40.2605251983904</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>-3.249957327858138</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-21.40807290557948</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-40.41208095791576</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>-3.305403754484272</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-21.51886789806429</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-40.56458430075791</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>-3.361196852916291</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-21.63035562229874</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-40.71093634539509</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>-3.414739508965619</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-21.73734643371031</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-40.83163063953462</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>-3.458895318980088</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-21.82558012046711</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-40.9059642444989</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>-3.486090146721481</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-21.87992177814597</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-40.92138407219001</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>-3.491731465450246</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-21.8911944588973</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-40.85990072811758</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>-3.469237884628789</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-21.84624699754195</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-40.7083844999707</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>-3.413805920492782</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-21.73548090451166</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-40.46177862354813</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>-3.323585564133776</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-21.55519942718266</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-40.11240182669076</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>-3.195766634701503</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-21.29978716371335</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-39.66154824043351</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>-3.030822587917456</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-20.97019018991595</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-39.1165737058011</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>-2.831444546183897</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-20.57178600086953</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-38.48223110942409</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>-2.599371345297294</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-20.10804919919007</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-37.77292259161614</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>-2.339871984724655</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-19.58950848423426</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-37.00545462208775</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>-2.059095083908524</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-19.02845024281514</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-36.19238064803801</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>-1.761633300965027</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-18.43405168530358</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-35.35130444867281</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>-1.453926949710928</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-17.81918207243192</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-34.49624402763369</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>-1.141104493840321</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-17.19408928005115</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-33.62864924206156</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>-0.823696361215749</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-16.559833227702</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-32.76410998561676</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>-0.5074060889225392</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-15.92781092303594</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-31.8930657089874</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>-0.1887359656392079</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-15.29103311673326</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-31.03415590722834</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.1254947798689102</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-14.66312623065343</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-30.16674082494969</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.442837168337615</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-14.02900155058015</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-29.34913371877624</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.7419573902508424</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-13.43128904220884</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-28.51536795309626</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>1.046989231303532</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-12.82176372933443</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-16.04464087641424</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>5.60938432600208</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-3.705025988265489</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-16.05643685655805</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>5.605068785968658</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-3.713649451573501</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-16.25922106954242</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>5.530880513471531</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-3.861895057177712</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-16.62288494391029</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>5.397834680110507</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-4.127751903224176</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-17.09645573166006</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>5.224579582333407</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-4.473956310328782</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-17.60709858075577</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>5.037761731575259</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-4.847262285668634</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-18.07830970545314</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>4.865369912664677</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-5.19174165869353</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-18.42863008571878</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>4.73720577478651</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-5.447843729775266</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-18.57881754368953</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>4.682259939045126</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-5.557638424013851</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-18.4734076420002</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>4.720823979092102</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-5.480578407937452</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-18.08958211956384</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>4.861245918407742</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-5.19998236851935</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-17.44106170745907</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>5.098506049978667</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-4.725880860200384</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-16.58867012227882</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>5.410352116617421</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-4.102739122994638</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-15.62880131168298</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>5.761518550305563</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-3.40102605059515</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-14.6711446011576</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>6.111875690802668</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-2.700930136207009</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-13.82816972100593</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>6.420276671315613</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-2.084672490811042</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-13.19097015815699</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>6.653395088711014</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-1.618847100880112</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-12.8092488190472</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>6.793047215999781</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-1.339789326827734</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-12.70257711428871</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>6.832072884634873</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>-1.261806868331446</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-12.86029280538762</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>6.774372857122276</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>-1.377105085072048</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-13.24006357441872</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>6.635434342705006</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>-1.654736892880151</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-13.79114783183763</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>6.433821068887571</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>-2.057607600997402</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-14.45548387467111</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>6.190774814694239</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>-2.543271142281782</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-15.16750019860125</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>5.930284807682678</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>-3.063791401663336</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-15.87283902897824</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>5.672237750760911</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>-3.579430072576354</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-16.52506972663305</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>5.43362021729278</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>-4.056243988928646</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-17.08510672099608</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>5.228731599314024</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>-4.465659604514607</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-17.52768759837599</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>5.066814109535814</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>-4.7892088060547</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-17.83520938624146</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>4.954307766654353</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-5.014022922536829</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-17.99485521543405</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>4.895901601278535</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-5.130732168698252</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-18.00085854316539</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>4.89370529365149</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-5.135120907555556</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-17.85201301887308</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>4.948160185152468</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-5.02630723530046</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-17.55033209728603</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>5.058529656663596</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-4.805763090064871</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-17.10664695667763</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>5.220851139337004</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>-4.481406615765992</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-16.53917598606576</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>5.428459465361906</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>-4.066556384265726</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-15.87239243442426</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>5.672401136647705</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>-3.579103589172445</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-15.14284804924417</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>5.939303756185754</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>-3.045769422747416</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-14.39144877260363</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>6.214201952002652</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>-2.496458215643099</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-13.65780243510981</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>6.482605264082506</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-1.960125312797913</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-12.98214767353264</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>6.729792453006983</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-1.466187210638566</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-12.39479213739688</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>6.944675514790966</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-1.036800347243314</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-11.91697924753947</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>7.119482578682637</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-0.6874947470688627</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-11.56578652050043</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>7.247965863200402</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-0.4307549459892293</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-11.34327372671349</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>7.329371804701556</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-0.2680867412795573</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-11.23805615406597</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>7.3678654814833</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-0.1911673275452189</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-11.23160280197081</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>7.370226429787455</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-0.1864495979180289</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-11.29451184884926</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>7.347211257927343</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-0.2324393207629634</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-11.39360602758886</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>7.310957814786879</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-0.3048822211392195</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-11.49652865515792</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>7.27330373990679</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-0.3801239129346602</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-11.5704510362159</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>7.246259357758616</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-0.4341649449576538</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-11.59017226029413</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>7.239044380200155</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-0.4485821659222788</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-11.54267153903545</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>7.25642244134548</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-0.4138567152276897</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-11.42690540871934</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>7.298775290689288</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-0.3292257676573732</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-11.25458424465496</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>7.361818706586832</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-0.2032502050177189</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-11.04797434409241</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>7.437406600624326</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-0.05220782660987677</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-10.83599741902011</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>7.514958011796454</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>0.1027581205365322</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-10.64994207268279</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>7.583026055804811</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>0.238774071126347</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-10.52186562977052</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>7.629882612868112</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>0.332404485268237</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-10.48041724031526</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>7.645046438326806</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>0.3627053726286707</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-10.54501865248753</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>7.621412117393231</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>0.3154784444106304</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-10.72790447240834</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>7.554503639437939</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>0.1817795793383615</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-11.02910076784269</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>7.444311467611765</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-0.03841027945430576</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-11.43533922980236</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>7.295689791046634</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-0.3353913211568778</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-11.92596768242739</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>7.116194174486999</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-0.6940657515557608</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-12.47143729288364</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>6.916635010073398</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-1.092831866287843</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-13.03652713553956</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>6.709897815814847</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-1.505941371768795</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-13.58857936706895</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>6.507930410253024</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-1.909519718346189</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-14.09734667570062</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>6.321798722904631</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-2.281454577918026</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-14.53766511302853</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>6.160708943117333</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-2.603349820351951</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-14.89662876796861</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>6.029382677342826</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-2.865770566194701</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-15.16991220975143</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>5.929402377350247</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-3.065554704873284</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-15.35987402590834</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>5.859905157750689</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-3.204426484206659</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-15.47953008558614</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>5.81612918411514</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-3.29190116860192</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-15.54426644181708</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>5.792445494118512</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-3.339226747811606</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-15.56840069580368</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>5.783616016789273</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-3.356870118789038</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-15.57011209113057</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>5.78298990560935</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-3.35812123608722</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-15.56233199717424</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>5.785836240252421</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-3.35243359047004</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-15.55311472571183</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>5.789208363934388</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-3.345695294772094</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-15.5507157157717</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>5.790086037795398</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-3.343941496110003</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-15.55603879510974</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>5.788138597929922</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-3.347832938686002</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-15.56692623093325</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>5.784155447349402</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-3.355792209742555</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-15.58659089892075</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>5.776961160744188</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-3.370168085319404</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-15.61450999972649</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>5.766747003399449</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-3.39057837242194</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-15.65069673920527</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>5.753508143974819</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-3.417032725203768</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-15.70059201077526</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>5.735254040516391</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-3.453508714344253</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-15.76324830478047</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>5.712331337881364</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-3.49931366194357</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-15.83674811348621</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>5.68544155313679</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-3.553045772017715</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-15.92492283743284</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>5.653182974664431</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-3.617505993837153</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-16.02610305437473</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>5.61616635786112</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-3.691473894567533</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-16.13912328815276</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>5.574818090272557</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-3.774097451674741</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-16.27055126116069</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>5.526735381407994</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-3.870178005309335</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-16.42072440445977</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>5.471794782665818</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-3.979962234792603</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-16.58981775147661</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>5.409932258353317</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-4.103578098489482</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-16.7848133821371</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>5.338593425954641</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-4.246129853046763</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-17.00215483220902</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>5.259079412089569</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-4.405017541662315</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-17.23715720394314</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>5.173104178933593</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-4.576816265061143</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-17.48220445060311</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>5.083454044722789</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-4.755958304513457</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-17.72150594002605</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>4.995905986395163</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-4.930899902280869</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-17.92442822096103</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>4.921667201964231</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-5.079246442601108</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-18.07441737087143</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>4.866793916902229</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-5.188896163530033</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-18.1205723641002</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>4.849908188154582</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-5.22263781837663</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>